--- a/input/input_table.xlsx
+++ b/input/input_table.xlsx
@@ -25,61 +25,61 @@
     <t xml:space="preserve">Biosample</t>
   </si>
   <si>
-    <t xml:space="preserve">Requisição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requisitante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartão Nacional de Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Município</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data de Cadastro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profissional de Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro Interno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data da Coleta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data do recebimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amostra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material Clínico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome RT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro RT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratório responsável</t>
+    <t xml:space="preserve">Requisição - Request ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paciente – Patient name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisitante - Requesting Clinician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origem - Referring Facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartão Nacional de Saúde - National Health ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Município – City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data de Cadastro - Registration Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idade - Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexo - Sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profissional de Saúde - Healthcare Professional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro Interno - Internal Record ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data da Coleta - Collection Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data do recebimento - Receipt Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material - Collection Specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amostra - Sample ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Clínico - Clinical Specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome RT - RT Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro RT - RT License Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratório responsável - Responsible Laboratory</t>
   </si>
 </sst>
 </file>
@@ -164,12 +164,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,6 +187,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -205,7 +213,7 @@
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -214,37 +222,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -253,120 +261,153 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
     </row>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
